--- a/utils/test.xlsx
+++ b/utils/test.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21715"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2CD64C3-16CE-4587-B6CC-EF14211B54C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04F655F-F801-4875-AA9A-ED43BCFBB6D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -34,9 +34,6 @@
     <t>类别</t>
   </si>
   <si>
-    <t>下周计划</t>
-  </si>
-  <si>
     <t>1、参与项目情况</t>
   </si>
   <si>
@@ -171,10 +168,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;%=_data_.weekRange%&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;%forRow sum in _data_.summarizes%&gt;&lt;%=sum.name%&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -188,6 +181,14 @@
   </si>
   <si>
     <t>&lt;%forRow ass in _data_.assists%&gt;&lt;%=ass.type%&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本周工作内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下周工作计划</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -831,8 +832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C585F5-46CC-4A10-B8F6-61AD2C3031DB}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -846,7 +847,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A1" s="34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="34"/>
@@ -855,36 +856,36 @@
     </row>
     <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>7</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="33" t="s">
+      <c r="E3" s="33" t="s">
         <v>25</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
@@ -907,27 +908,27 @@
         <v>3</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B7" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="D7" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="E7" s="33" t="s">
         <v>30</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -946,7 +947,7 @@
     </row>
     <row r="10" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A10" s="38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="39"/>
       <c r="C10" s="40"/>
@@ -955,26 +956,26 @@
     </row>
     <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="C11" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>13</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B12" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="33" t="s">
         <v>32</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>33</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="14"/>
@@ -995,7 +996,7 @@
     </row>
     <row r="16" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A16" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
@@ -1007,33 +1008,33 @@
         <v>1</v>
       </c>
       <c r="B17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="D17" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="E17" s="19" t="s">
         <v>16</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B18" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="D18" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="E18" s="33" t="s">
         <v>37</v>
-      </c>
-      <c r="E18" s="33" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -1058,7 +1059,7 @@
     </row>
     <row r="22" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A22" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
@@ -1067,36 +1068,36 @@
     </row>
     <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="E23" s="27" t="s">
         <v>21</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B24" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="D24" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="33" t="s">
+      <c r="E24" s="33" t="s">
         <v>41</v>
-      </c>
-      <c r="E24" s="33" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">

--- a/utils/test.xlsx
+++ b/utils/test.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21715"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04F655F-F801-4875-AA9A-ED43BCFBB6D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangfy/work/program/git-my-workspace/weekly-service/utils/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21840" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -31,171 +38,172 @@
     <t>项目名称</t>
   </si>
   <si>
+    <t>1、参与项目情况</t>
+  </si>
+  <si>
+    <t>项目类型</t>
+  </si>
+  <si>
+    <t>归属分支</t>
+  </si>
+  <si>
+    <t>目前阶段</t>
+  </si>
+  <si>
+    <t>下一步工作计划</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3、个人输出物部分</t>
+  </si>
+  <si>
+    <t xml:space="preserve">姓名 </t>
+  </si>
+  <si>
+    <t>输出物</t>
+  </si>
+  <si>
+    <t>链接</t>
+  </si>
+  <si>
+    <t>兴趣组模块</t>
+  </si>
+  <si>
+    <t>技术栈</t>
+  </si>
+  <si>
+    <t>预计投入（人天）</t>
+  </si>
+  <si>
+    <t>月份</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  5、前端能开协助部分</t>
+  </si>
+  <si>
+    <t>列表</t>
+  </si>
+  <si>
+    <t>协助分支</t>
+  </si>
+  <si>
+    <t>解决问题</t>
+  </si>
+  <si>
+    <t>帖子/svn地址</t>
+  </si>
+  <si>
+    <t>&lt;%=pro.proName%&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=pro.branch%&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=pro.state%&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=pro.next%&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%forRow pro in _data_.projects%&gt;&lt;%=pro.proType%&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=sum.proName%&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=sum.type%&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=sum.week%&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=sum.nextWeek%&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=out.fileName%&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=out.url%&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4、兴趣小组部分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=intr.module%&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=intr.technological%&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=intr.putInto%&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=intr.mouth%&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=ass.name%&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=ass.branch%&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=ass.resolve%&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=ass.url%&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%forRow sum in _data_.summarizes%&gt;&lt;%=sum.name%&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%forRow out in _data_.outputs%&gt;&lt;%=out.name%&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%forRow intr in _data_.interests%&gt;&lt;%=intr.name%&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%forRow ass in _data_.assists%&gt;&lt;%=ass.type%&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本周工作内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下周工作计划</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>类别</t>
-  </si>
-  <si>
-    <t>1、参与项目情况</t>
-  </si>
-  <si>
-    <t>项目类型</t>
-  </si>
-  <si>
-    <t>归属分支</t>
-  </si>
-  <si>
-    <t>目前阶段</t>
-  </si>
-  <si>
-    <t>下一步工作计划</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3、个人输出物部分</t>
-  </si>
-  <si>
-    <t xml:space="preserve">姓名 </t>
-  </si>
-  <si>
-    <t>输出物</t>
-  </si>
-  <si>
-    <t>链接</t>
-  </si>
-  <si>
-    <t>兴趣组模块</t>
-  </si>
-  <si>
-    <t>技术栈</t>
-  </si>
-  <si>
-    <t>预计投入（人天）</t>
-  </si>
-  <si>
-    <t>月份</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  5、前端能开协助部分</t>
-  </si>
-  <si>
-    <t>列表</t>
-  </si>
-  <si>
-    <t>协助分支</t>
-  </si>
-  <si>
-    <t>解决问题</t>
-  </si>
-  <si>
-    <t>帖子/svn地址</t>
-  </si>
-  <si>
-    <t>&lt;%=pro.proName%&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=pro.branch%&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=pro.state%&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=pro.next%&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%forRow pro in _data_.projects%&gt;&lt;%=pro.proType%&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=sum.proName%&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=sum.type%&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=sum.week%&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=sum.nextWeek%&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=out.fileName%&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=out.url%&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4、兴趣小组部分</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=intr.module%&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=intr.technological%&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=intr.putInto%&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=intr.mouth%&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=ass.name%&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=ass.branch%&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=ass.resolve%&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=ass.url%&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%forRow sum in _data_.summarizes%&gt;&lt;%=sum.name%&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%forRow out in _data_.outputs%&gt;&lt;%=out.name%&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%forRow intr in _data_.interests%&gt;&lt;%=intr.name%&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%forRow ass in _data_.assists%&gt;&lt;%=ass.type%&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>本周工作内容</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>下周工作计划</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
@@ -389,10 +397,6 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -541,17 +545,21 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 3 10 2" xfId="2" xr:uid="{4AA2BB89-01AA-477A-B958-E9AFE8921E15}"/>
-    <cellStyle name="常规 3 10 3 2" xfId="4" xr:uid="{0F3DD4DB-E08F-497C-A105-0A60C76BE1AE}"/>
-    <cellStyle name="常规 3 10 3 2 2" xfId="5" xr:uid="{DEFCAAB2-0329-4E40-9264-72F40826EF23}"/>
-    <cellStyle name="常规 3 10 3 2 2 2 2 2 2 3 2" xfId="6" xr:uid="{7367E0F8-9BFA-460D-9DC5-F1B95F821ADC}"/>
-    <cellStyle name="常规 3 2 2 2 2" xfId="7" xr:uid="{E2C858D8-14DC-45ED-836A-77B3E53FAD7B}"/>
-    <cellStyle name="常规 3 2 4 3" xfId="1" xr:uid="{017000A5-566D-4D2E-A5B9-AA317704D0AB}"/>
-    <cellStyle name="常规 3 2 4 3 3" xfId="3" xr:uid="{F927016C-FFDD-4DFC-9CAA-63D08F50C504}"/>
-    <cellStyle name="常规 5" xfId="8" xr:uid="{FAC56F44-89C5-4428-B175-E093D539814C}"/>
+    <cellStyle name="常规 3 10 2" xfId="2"/>
+    <cellStyle name="常规 3 10 3 2" xfId="4"/>
+    <cellStyle name="常规 3 10 3 2 2" xfId="5"/>
+    <cellStyle name="常规 3 10 3 2 2 2 2 2 2 3 2" xfId="6"/>
+    <cellStyle name="常规 3 2 2 2 2" xfId="7"/>
+    <cellStyle name="常规 3 2 4 3" xfId="1"/>
+    <cellStyle name="常规 3 2 4 3 3" xfId="3"/>
+    <cellStyle name="常规 5" xfId="8"/>
     <cellStyle name="超链接" xfId="9" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -829,437 +837,437 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C585F5-46CC-4A10-B8F6-61AD2C3031DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="E6" sqref="E6:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="19.75" customWidth="1"/>
-    <col min="3" max="3" width="36.375" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
-    <col min="5" max="5" width="16.875" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="36.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.2">
+      <c r="A1" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+    </row>
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-    </row>
-    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="33" t="s">
+      <c r="A3" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="33" t="s">
+      <c r="E3" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="33" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="35" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="23" x14ac:dyDescent="0.2">
+      <c r="A5" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="37"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="36"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="1:5" ht="23" x14ac:dyDescent="0.2">
+      <c r="A10" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="38"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="33" t="s">
+      <c r="B12" s="32" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-    </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="8" t="s">
+      <c r="C12" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="13"/>
+    </row>
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="13"/>
+    </row>
+    <row r="16" spans="1:5" ht="23" x14ac:dyDescent="0.2">
+      <c r="A16" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+    </row>
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-    </row>
-    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="33" t="s">
+      <c r="C17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="14"/>
-    </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="14"/>
-    </row>
-    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="14"/>
-    </row>
-    <row r="16" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="25" t="s">
+      <c r="B18" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-    </row>
-    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+      <c r="C18" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="21"/>
+    </row>
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="13"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="40"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+    </row>
+    <row r="22" spans="1:5" ht="23" x14ac:dyDescent="0.2">
+      <c r="A22" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+    </row>
+    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="33" t="s">
+      <c r="C23" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="33" t="s">
+      <c r="B24" s="32" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="22"/>
-    </row>
-    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="14"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="41"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-    </row>
-    <row r="22" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-    </row>
-    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="33" t="s">
+      <c r="C24" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="D24" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="33" t="s">
+      <c r="E24" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-    </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="28"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="30"/>
-    </row>
-    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="30"/>
-    </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="31"/>
-    </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="32"/>
-    </row>
-    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="31"/>
-    </row>
-    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="31"/>
-    </row>
-    <row r="32" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="28"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="31"/>
-    </row>
-    <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-    </row>
-    <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-    </row>
-    <row r="35" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="28"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-    </row>
-    <row r="36" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="28"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-    </row>
-    <row r="37" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="28"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-    </row>
-    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="28"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-    </row>
-    <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="28"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-    </row>
-    <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="28"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-    </row>
-    <row r="41" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="28"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-    </row>
-    <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="28"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-    </row>
-    <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="28"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-    </row>
-    <row r="44" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="28"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-    </row>
-    <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="28"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-    </row>
-    <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="28"/>
-      <c r="B46" s="28"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-    </row>
-    <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="28"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
+    </row>
+    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+    </row>
+    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="29"/>
+    </row>
+    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="29"/>
+    </row>
+    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="30"/>
+    </row>
+    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="31"/>
+    </row>
+    <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="27"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="30"/>
+    </row>
+    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="27"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="30"/>
+    </row>
+    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="30"/>
+    </row>
+    <row r="33" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="27"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+    </row>
+    <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="27"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+    </row>
+    <row r="35" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="27"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+    </row>
+    <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="27"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+    </row>
+    <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="27"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+    </row>
+    <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="27"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+    </row>
+    <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="27"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+    </row>
+    <row r="40" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="27"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+    </row>
+    <row r="41" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="27"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+    </row>
+    <row r="42" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="27"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+    </row>
+    <row r="43" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="27"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+    </row>
+    <row r="44" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="27"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+    </row>
+    <row r="45" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="27"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+    </row>
+    <row r="46" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="27"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+    </row>
+    <row r="47" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="27"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/utils/test.xlsx
+++ b/utils/test.xlsx
@@ -1,33 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21715"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangfy/work/program/git-my-workspace/weekly-service/utils/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF3127A-891C-405C-9C95-74D86CB774ED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="21840" windowHeight="13140"/>
+    <workbookView xWindow="3225" yWindow="1335" windowWidth="16200" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="50">
   <si>
     <t>2、个人总结部分</t>
   </si>
@@ -197,13 +193,21 @@
   </si>
   <si>
     <t>类别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=pro.name%&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写负责人</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
@@ -295,7 +299,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -305,6 +309,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,7 +401,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -516,6 +526,10 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -545,21 +559,22 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 3 10 2" xfId="2"/>
-    <cellStyle name="常规 3 10 3 2" xfId="4"/>
-    <cellStyle name="常规 3 10 3 2 2" xfId="5"/>
-    <cellStyle name="常规 3 10 3 2 2 2 2 2 2 3 2" xfId="6"/>
-    <cellStyle name="常规 3 2 2 2 2" xfId="7"/>
-    <cellStyle name="常规 3 2 4 3" xfId="1"/>
-    <cellStyle name="常规 3 2 4 3 3" xfId="3"/>
-    <cellStyle name="常规 5" xfId="8"/>
+    <cellStyle name="常规 3 10 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 3 10 3 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规 3 10 3 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="常规 3 10 3 2 2 2 2 2 2 3 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="常规 3 2 2 2 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="常规 3 2 4 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="常规 3 2 4 3 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="常规 5" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="超链接" xfId="9" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -837,32 +852,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E8"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="36.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="36.375" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="16.875" customWidth="1"/>
+    <col min="6" max="6" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-    </row>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -878,8 +894,11 @@
       <c r="E2" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="43" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="32" t="s">
         <v>25</v>
       </c>
@@ -895,21 +914,24 @@
       <c r="E3" s="32" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A5" s="34" t="s">
+      <c r="F3" s="42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="36"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="37"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="33" t="s">
         <v>47</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -922,7 +944,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="32" t="s">
         <v>41</v>
       </c>
@@ -939,30 +961,30 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="3"/>
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
       <c r="C9" s="8"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:5" ht="23" x14ac:dyDescent="0.2">
-      <c r="A10" s="37" t="s">
+    <row r="10" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="39"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="40"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
     </row>
-    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
@@ -975,7 +997,7 @@
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
     </row>
-    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="32" t="s">
         <v>42</v>
       </c>
@@ -988,21 +1010,21 @@
       <c r="D12" s="14"/>
       <c r="E12" s="13"/>
     </row>
-    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="14"/>
       <c r="E13" s="13"/>
     </row>
-    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="14"/>
       <c r="E14" s="13"/>
     </row>
-    <row r="16" spans="1:5" ht="23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A16" s="24" t="s">
         <v>32</v>
       </c>
@@ -1011,7 +1033,7 @@
       <c r="D16" s="25"/>
       <c r="E16" s="25"/>
     </row>
-    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>1</v>
       </c>
@@ -1045,14 +1067,14 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="19"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
       <c r="D19" s="20"/>
       <c r="E19" s="21"/>
     </row>
-    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="22"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -1060,12 +1082,12 @@
       <c r="E20" s="13"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="40"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-    </row>
-    <row r="22" spans="1:5" ht="23" x14ac:dyDescent="0.2">
+      <c r="A21" s="41"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+    </row>
+    <row r="22" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A22" s="24" t="s">
         <v>16</v>
       </c>
@@ -1074,7 +1096,7 @@
       <c r="D22" s="25"/>
       <c r="E22" s="25"/>
     </row>
-    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>17</v>
       </c>
@@ -1108,161 +1130,161 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
       <c r="D25" s="28"/>
       <c r="E25" s="28"/>
     </row>
-    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
       <c r="D26" s="28"/>
       <c r="E26" s="29"/>
     </row>
-    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
       <c r="D27" s="28"/>
       <c r="E27" s="29"/>
     </row>
-    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
       <c r="B28" s="27"/>
       <c r="C28" s="27"/>
       <c r="D28" s="28"/>
       <c r="E28" s="30"/>
     </row>
-    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="27"/>
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="31"/>
     </row>
-    <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="27"/>
       <c r="B30" s="27"/>
       <c r="C30" s="27"/>
       <c r="D30" s="27"/>
       <c r="E30" s="30"/>
     </row>
-    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="27"/>
       <c r="B31" s="27"/>
       <c r="C31" s="27"/>
       <c r="D31" s="27"/>
       <c r="E31" s="30"/>
     </row>
-    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="27"/>
       <c r="B32" s="27"/>
       <c r="C32" s="27"/>
       <c r="D32" s="27"/>
       <c r="E32" s="30"/>
     </row>
-    <row r="33" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="27"/>
       <c r="B33" s="27"/>
       <c r="C33" s="27"/>
       <c r="D33" s="27"/>
       <c r="E33" s="27"/>
     </row>
-    <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="27"/>
       <c r="B34" s="27"/>
       <c r="C34" s="27"/>
       <c r="D34" s="27"/>
       <c r="E34" s="27"/>
     </row>
-    <row r="35" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="27"/>
       <c r="B35" s="27"/>
       <c r="C35" s="27"/>
       <c r="D35" s="27"/>
       <c r="E35" s="27"/>
     </row>
-    <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="27"/>
       <c r="B36" s="27"/>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
       <c r="E36" s="27"/>
     </row>
-    <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="27"/>
       <c r="B37" s="27"/>
       <c r="C37" s="27"/>
       <c r="D37" s="27"/>
       <c r="E37" s="27"/>
     </row>
-    <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="27"/>
       <c r="B38" s="27"/>
       <c r="C38" s="27"/>
       <c r="D38" s="27"/>
       <c r="E38" s="27"/>
     </row>
-    <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="27"/>
       <c r="B39" s="27"/>
       <c r="C39" s="27"/>
       <c r="D39" s="27"/>
       <c r="E39" s="27"/>
     </row>
-    <row r="40" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="27"/>
       <c r="B40" s="27"/>
       <c r="C40" s="27"/>
       <c r="D40" s="27"/>
       <c r="E40" s="27"/>
     </row>
-    <row r="41" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="27"/>
       <c r="B41" s="27"/>
       <c r="C41" s="27"/>
       <c r="D41" s="27"/>
       <c r="E41" s="27"/>
     </row>
-    <row r="42" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="27"/>
       <c r="B42" s="27"/>
       <c r="C42" s="27"/>
       <c r="D42" s="27"/>
       <c r="E42" s="27"/>
     </row>
-    <row r="43" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="27"/>
       <c r="B43" s="27"/>
       <c r="C43" s="27"/>
       <c r="D43" s="27"/>
       <c r="E43" s="27"/>
     </row>
-    <row r="44" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="27"/>
       <c r="B44" s="27"/>
       <c r="C44" s="27"/>
       <c r="D44" s="27"/>
       <c r="E44" s="27"/>
     </row>
-    <row r="45" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="27"/>
       <c r="B45" s="27"/>
       <c r="C45" s="27"/>
       <c r="D45" s="27"/>
       <c r="E45" s="27"/>
     </row>
-    <row r="46" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="27"/>
       <c r="B46" s="27"/>
       <c r="C46" s="27"/>
       <c r="D46" s="27"/>
       <c r="E46" s="27"/>
     </row>
-    <row r="47" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="27"/>
       <c r="B47" s="27"/>
       <c r="C47" s="27"/>

--- a/utils/test.xlsx
+++ b/utils/test.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21715"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF3127A-891C-405C-9C95-74D86CB774ED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0932C7C-460F-43B8-839F-86D1E5CF7A08}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3225" yWindow="1335" windowWidth="16200" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="50">
   <si>
     <t>2、个人总结部分</t>
   </si>
@@ -299,7 +299,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -315,6 +315,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,7 +407,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -525,11 +531,14 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -559,8 +568,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -856,7 +864,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -894,24 +902,24 @@
       <c r="E2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
+    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="42" t="s">
         <v>24</v>
       </c>
       <c r="F3" s="42" t="s">
@@ -931,11 +939,11 @@
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="32" t="s">
         <v>47</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>45</v>
@@ -944,27 +952,27 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="32" t="s">
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="42" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
     </row>
@@ -998,13 +1006,13 @@
       <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="42" t="s">
         <v>31</v>
       </c>
       <c r="D12" s="14"/>
@@ -1050,20 +1058,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="32" t="s">
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="42" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1113,20 +1121,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="32" t="s">
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="32" t="s">
+      <c r="D24" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="32" t="s">
+      <c r="E24" s="42" t="s">
         <v>40</v>
       </c>
     </row>
